--- a/input_csv/17_Audio_Geraete/artikel.xlsx
+++ b/input_csv/17_Audio_Geraete/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\17_Audio_Geraete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE159BD-884C-4929-B959-5D14CDCE9438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB42B3-E1AC-47F8-A690-A65C73E1C6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1DE3B68-6782-4B20-A331-37E7ECC8BC0F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,17 +31,41 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Razer Kraken V4 X - Kabelgebunden - Gaming Headset</t>
-  </si>
-  <si>
-    <t>Logitech Z207 - Lautsprecher - für PC - 2.0-Kanal - kabellos - Bluetooth- 5 Watt</t>
+    <t>Corsair HS55 STEREO Gaming-Headset – Carbon</t>
+  </si>
+  <si>
+    <t>Corsair Gaming HS80 RGB Carbon - USB</t>
+  </si>
+  <si>
+    <t>Razer Barracuda X Black - Kabellos - Gaming Headset</t>
+  </si>
+  <si>
+    <t>Razer Barracuda X Chroma Black - Kabellos</t>
+  </si>
+  <si>
+    <t>Razer BlackShark V3 Pro - Black</t>
+  </si>
+  <si>
+    <t>Razer BlackShark V3 X Hyperspeed - Black</t>
+  </si>
+  <si>
+    <t>Razer Kraken V4 X - Kabelgebunden</t>
+  </si>
+  <si>
+    <t>Razer Leviathan V2 X Soundbar</t>
+  </si>
+  <si>
+    <t>Razer Seiren V3 Mini - Black</t>
+  </si>
+  <si>
+    <t>Razer Serien V3 Chroma - Black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +196,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,8 +549,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59218E21-FA2B-4FFC-910D-72D37BCD804F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>107142</v>
+        <v>106651</v>
       </c>
       <c r="C2">
-        <v>8887910060766</v>
+        <v>840006643623</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,10 +967,98 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>106628</v>
+        <v>106552</v>
       </c>
       <c r="C3">
-        <v>5099206075023</v>
+        <v>840006644484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>107143</v>
+      </c>
+      <c r="C4">
+        <v>8886419379850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>107144</v>
+      </c>
+      <c r="C5">
+        <v>8887910060834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>107145</v>
+      </c>
+      <c r="C6">
+        <v>8887910061152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>107146</v>
+      </c>
+      <c r="C7">
+        <v>8887910061336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>107142</v>
+      </c>
+      <c r="C8">
+        <v>8887910060766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>107147</v>
+      </c>
+      <c r="C9">
+        <v>8886419379645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>107151</v>
+      </c>
+      <c r="C10">
+        <v>8887910000380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>107150</v>
+      </c>
+      <c r="C11">
+        <v>8887910000441</v>
       </c>
     </row>
   </sheetData>
